--- a/LaTiPee.xlsx
+++ b/LaTiPee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khaizr0/Documents/GitHub/LaTiPee/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khai\Documents\GitHub\LaTiPee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD036E0F-AC9B-6A42-A513-2770C4DC738A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0324054-3F6E-496E-BC13-4B5C8761FB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{7F2426AB-354F-4FC1-AF11-9F71120D466A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7F2426AB-354F-4FC1-AF11-9F71120D466A}"/>
   </bookViews>
   <sheets>
     <sheet name="LaTiPee" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="106">
   <si>
     <t>Tên công việc</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>Khải</t>
+  </si>
+  <si>
+    <t>31/08/2023</t>
   </si>
 </sst>
 </file>
@@ -854,23 +857,23 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="109" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -893,7 +896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -908,7 +911,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -931,7 +934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -954,7 +957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -975,7 +978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -996,7 +999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1015,7 +1018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1036,7 +1039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1057,7 +1060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1083,7 +1086,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1099,7 +1102,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1121,7 +1124,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1143,7 +1146,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1165,7 +1168,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1187,7 +1190,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1209,7 +1212,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -1231,7 +1234,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -1253,7 +1256,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -1275,7 +1278,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -1297,7 +1300,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -1319,7 +1322,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -1341,18 +1344,26 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>104</v>
+      </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="G23" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I23" s="1">
         <v>11</v>
       </c>
@@ -1363,13 +1374,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>38</v>
-      </c>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1385,7 +1392,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I25" s="1">
         <v>13</v>
       </c>
@@ -1396,7 +1403,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I26" s="1">
         <v>14</v>
       </c>
@@ -1407,7 +1414,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I27" s="1">
         <v>15</v>
       </c>
@@ -1418,7 +1425,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I28" s="1">
         <v>16</v>
       </c>
@@ -1429,7 +1436,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I29" s="1">
         <v>17</v>
       </c>
@@ -1458,21 +1465,21 @@
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="110.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="110.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1483,7 +1490,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -1492,7 +1499,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1501,7 +1508,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1510,7 +1517,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1519,7 +1526,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1528,7 +1535,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1537,13 +1544,13 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>65</v>
@@ -1552,7 +1559,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1561,7 +1568,7 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -1570,7 +1577,7 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -1579,7 +1586,7 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -1588,13 +1595,13 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
         <v>70</v>
@@ -1603,7 +1610,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -1612,7 +1619,7 @@
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -1621,7 +1628,7 @@
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -1630,7 +1637,7 @@
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -1639,7 +1646,7 @@
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>5</v>
       </c>
@@ -1648,7 +1655,7 @@
       </c>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -1657,13 +1664,13 @@
       </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>72</v>
@@ -1672,7 +1679,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -1681,7 +1688,7 @@
       </c>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>2</v>
       </c>
@@ -1690,7 +1697,7 @@
       </c>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -1699,7 +1706,7 @@
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>92</v>
@@ -1708,7 +1715,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -1717,7 +1724,7 @@
       </c>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>2</v>
       </c>
@@ -1726,7 +1733,7 @@
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>3</v>
       </c>
@@ -1735,7 +1742,7 @@
       </c>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>4</v>
       </c>
@@ -1744,12 +1751,12 @@
       </c>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>97</v>
@@ -1758,7 +1765,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -1767,7 +1774,7 @@
       </c>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -1776,7 +1783,7 @@
       </c>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>3</v>
       </c>

--- a/LaTiPee.xlsx
+++ b/LaTiPee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khai\Documents\GitHub\LaTiPee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khaizr0/Documents/GitHub/LaTiPee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0324054-3F6E-496E-BC13-4B5C8761FB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1C4735-846D-0241-9E42-7D2A290D8856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7F2426AB-354F-4FC1-AF11-9F71120D466A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{7F2426AB-354F-4FC1-AF11-9F71120D466A}"/>
   </bookViews>
   <sheets>
     <sheet name="LaTiPee" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="110">
   <si>
     <t>Tên công việc</t>
   </si>
@@ -355,6 +355,18 @@
   </si>
   <si>
     <t>31/08/2023</t>
+  </si>
+  <si>
+    <t>30/9/2023</t>
+  </si>
+  <si>
+    <t>01/09/2023</t>
+  </si>
+  <si>
+    <t>30/09/2023</t>
+  </si>
+  <si>
+    <t>31/09/2023</t>
   </si>
 </sst>
 </file>
@@ -504,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
@@ -540,6 +552,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -857,23 +871,23 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="109" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -896,7 +910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -911,7 +925,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -934,7 +948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -957,7 +971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -978,7 +992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -999,7 +1013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1018,7 +1032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1039,7 +1053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1060,7 +1074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1086,7 +1100,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1102,18 +1116,26 @@
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1124,18 +1146,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="C13" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="G13" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I13" s="1">
         <v>1</v>
       </c>
@@ -1146,16 +1176,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="20" t="s">
+        <v>108</v>
+      </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>104</v>
+      </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="I14" s="1">
@@ -1168,16 +1202,20 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>109</v>
+      </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>104</v>
+      </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="I15" s="1">
@@ -1190,7 +1228,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1212,7 +1250,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -1234,7 +1272,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -1256,7 +1294,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -1278,7 +1316,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -1300,7 +1338,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -1322,7 +1360,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -1344,7 +1382,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -1374,7 +1412,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1392,7 +1430,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I25" s="1">
         <v>13</v>
       </c>
@@ -1403,7 +1441,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I26" s="1">
         <v>14</v>
       </c>
@@ -1414,7 +1452,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I27" s="1">
         <v>15</v>
       </c>
@@ -1425,7 +1463,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I28" s="1">
         <v>16</v>
       </c>
@@ -1436,7 +1474,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I29" s="1">
         <v>17</v>
       </c>
@@ -1465,21 +1503,21 @@
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="110.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="110.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1490,7 +1528,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -1499,7 +1537,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1508,7 +1546,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1517,7 +1555,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1526,7 +1564,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1535,7 +1573,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1544,13 +1582,13 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>65</v>
@@ -1559,7 +1597,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1568,7 +1606,7 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -1577,7 +1615,7 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -1586,7 +1624,7 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -1595,13 +1633,13 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
         <v>70</v>
@@ -1610,7 +1648,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -1619,7 +1657,7 @@
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -1628,7 +1666,7 @@
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -1637,7 +1675,7 @@
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -1646,7 +1684,7 @@
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>5</v>
       </c>
@@ -1655,7 +1693,7 @@
       </c>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -1664,13 +1702,13 @@
       </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>72</v>
@@ -1679,7 +1717,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -1688,7 +1726,7 @@
       </c>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>2</v>
       </c>
@@ -1697,7 +1735,7 @@
       </c>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -1706,7 +1744,7 @@
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>92</v>
@@ -1715,7 +1753,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -1724,7 +1762,7 @@
       </c>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>2</v>
       </c>
@@ -1733,7 +1771,7 @@
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>3</v>
       </c>
@@ -1742,7 +1780,7 @@
       </c>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>4</v>
       </c>
@@ -1751,12 +1789,12 @@
       </c>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>97</v>
@@ -1765,7 +1803,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -1774,7 +1812,7 @@
       </c>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -1783,7 +1821,7 @@
       </c>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>3</v>
       </c>

--- a/LaTiPee.xlsx
+++ b/LaTiPee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khaizr0/Documents/GitHub/LaTiPee/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0392956804\Documents\GitHub\LaTiPee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1C4735-846D-0241-9E42-7D2A290D8856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1315727E-974A-46C8-A4AF-E1753DFF1593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{7F2426AB-354F-4FC1-AF11-9F71120D466A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7F2426AB-354F-4FC1-AF11-9F71120D466A}"/>
   </bookViews>
   <sheets>
     <sheet name="LaTiPee" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="105">
   <si>
     <t>Tên công việc</t>
   </si>
@@ -352,21 +352,6 @@
   </si>
   <si>
     <t>Khải</t>
-  </si>
-  <si>
-    <t>31/08/2023</t>
-  </si>
-  <si>
-    <t>30/9/2023</t>
-  </si>
-  <si>
-    <t>01/09/2023</t>
-  </si>
-  <si>
-    <t>30/09/2023</t>
-  </si>
-  <si>
-    <t>31/09/2023</t>
   </si>
 </sst>
 </file>
@@ -528,6 +513,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -552,8 +539,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -871,23 +856,23 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="109" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -910,7 +895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -925,7 +910,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -948,7 +933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -971,7 +956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -992,7 +977,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1013,7 +998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1032,7 +1017,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1053,7 +1038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1074,7 +1059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1094,13 +1079,13 @@
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1112,30 +1097,24 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>106</v>
-      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="8" t="s">
         <v>90</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="G12" s="8"/>
       <c r="I12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1146,26 +1125,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>107</v>
-      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="8" t="s">
         <v>90</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="G13" s="8"/>
       <c r="I13" s="1">
         <v>1</v>
       </c>
@@ -1176,16 +1149,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="C14" s="12"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
         <v>104</v>
@@ -1202,16 +1173,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>109</v>
-      </c>
+      <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
         <v>104</v>
@@ -1228,7 +1197,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1250,7 +1219,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -1272,7 +1241,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -1294,7 +1263,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -1316,7 +1285,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -1338,7 +1307,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -1360,7 +1329,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -1382,26 +1351,20 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>105</v>
-      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="8" t="s">
         <v>104</v>
       </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="G23" s="8"/>
       <c r="I23" s="1">
         <v>11</v>
       </c>
@@ -1412,7 +1375,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1430,7 +1393,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I25" s="1">
         <v>13</v>
       </c>
@@ -1441,7 +1404,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I26" s="1">
         <v>14</v>
       </c>
@@ -1452,7 +1415,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I27" s="1">
         <v>15</v>
       </c>
@@ -1463,7 +1426,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I28" s="1">
         <v>16</v>
       </c>
@@ -1474,7 +1437,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I29" s="1">
         <v>17</v>
       </c>
@@ -1500,24 +1463,24 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView topLeftCell="A20" zoomScale="135" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="110.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="16"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1528,7 +1491,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -1537,7 +1500,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1546,7 +1509,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1555,7 +1518,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1564,7 +1527,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1573,7 +1536,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1582,13 +1545,13 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>65</v>
@@ -1597,7 +1560,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1606,7 +1569,7 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -1615,7 +1578,7 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -1624,7 +1587,7 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -1633,13 +1596,13 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
         <v>70</v>
@@ -1648,7 +1611,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -1657,7 +1620,7 @@
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -1666,7 +1629,7 @@
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -1675,7 +1638,7 @@
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -1684,7 +1647,7 @@
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>5</v>
       </c>
@@ -1693,7 +1656,7 @@
       </c>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -1702,13 +1665,13 @@
       </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>72</v>
@@ -1717,7 +1680,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -1726,7 +1689,7 @@
       </c>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>2</v>
       </c>
@@ -1735,7 +1698,7 @@
       </c>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -1744,7 +1707,7 @@
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>92</v>
@@ -1753,7 +1716,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -1762,7 +1725,7 @@
       </c>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>2</v>
       </c>
@@ -1771,7 +1734,7 @@
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3</v>
       </c>
@@ -1780,7 +1743,7 @@
       </c>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
@@ -1789,12 +1752,12 @@
       </c>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>97</v>
@@ -1803,7 +1766,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -1812,7 +1775,7 @@
       </c>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -1821,7 +1784,7 @@
       </c>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>3</v>
       </c>

--- a/LaTiPee.xlsx
+++ b/LaTiPee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0392956804\Documents\GitHub\LaTiPee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khai\Documents\GitHub\LaTiPee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1315727E-974A-46C8-A4AF-E1753DFF1593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86EBBE7-F44B-4D67-943D-56D3C74F5797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7F2426AB-354F-4FC1-AF11-9F71120D466A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7F2426AB-354F-4FC1-AF11-9F71120D466A}"/>
   </bookViews>
   <sheets>
     <sheet name="LaTiPee" sheetId="1" r:id="rId1"/>
@@ -856,23 +856,23 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="109" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -910,7 +910,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -933,7 +933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -956,7 +956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -977,7 +977,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -998,7 +998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1085,7 +1085,7 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1101,7 +1101,7 @@
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1393,7 +1393,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I25" s="1">
         <v>13</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I26" s="1">
         <v>14</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I27" s="1">
         <v>15</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I28" s="1">
         <v>16</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I29" s="1">
         <v>17</v>
       </c>
@@ -1466,21 +1466,21 @@
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="110.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="110.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -1500,7 +1500,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1545,13 +1545,13 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>65</v>
@@ -1560,7 +1560,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -1596,13 +1596,13 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
         <v>70</v>
@@ -1611,7 +1611,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>5</v>
       </c>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -1665,13 +1665,13 @@
       </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>72</v>
@@ -1680,7 +1680,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>2</v>
       </c>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>92</v>
@@ -1716,7 +1716,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>2</v>
       </c>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>3</v>
       </c>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>4</v>
       </c>
@@ -1752,12 +1752,12 @@
       </c>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>97</v>
@@ -1766,7 +1766,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>3</v>
       </c>
